--- a/biology/Botanique/Square_Philippe-Farine/Square_Philippe-Farine.xlsx
+++ b/biology/Botanique/Square_Philippe-Farine/Square_Philippe-Farine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Philippe-Farine, anciennement square du mail Gatbois, est un square de Paris, situé dans le 12e arrondissement.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mail, l’un des quatre mails du 12e arrondissement, est situé à proximité de la gare de Lyon. Il est entouré sur ses deux plus grandes longueurs par le passage Gatbois au nord-ouest et la rue Chrétien-de-Troyes au sud-est.
 Ce site est desservi par les lignes 1 et 14 à la station de métro Gare de Lyon.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend honneur à Philippe Farine (1917-2006), qui fut un élu du 12e arrondissement.
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1997, le mail Gatbois a une superficie de 1 300 m2. La promenade est bordée de chênes rouges d'Amérique et conduit à une aire de jeux, au milieu d'un square anciennement dénommé « square du mail Gatbois ». Celui-ci tirait son nom de la rue qui le dessert, le passage Gatbois. Le square a en effet pour adresse (et entrée principale) le 12, passage Gatbois.
-Il prend le nom de  « square Philippe-Farine »  lors de l'inauguration le 11 février 2014[1].
+Il prend le nom de  « square Philippe-Farine »  lors de l'inauguration le 11 février 2014.
 </t>
         </is>
       </c>
